--- a/docs/data_set_example.xlsx
+++ b/docs/data_set_example.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\hp2c-dt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesca\Documents\hp2c-dt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A864896B-CBE5-47C5-A2FF-A90F2CD135FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21628567-5F6B-46FD-B1B7-7BE92D43D4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{842C3DBD-3244-46C2-AB04-88F8BE730CD8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{842C3DBD-3244-46C2-AB04-88F8BE730CD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>NSG=</t>
   </si>
@@ -167,6 +168,63 @@
   </si>
   <si>
     <t>stable/unstable</t>
+  </si>
+  <si>
+    <t>Dimensions of the space</t>
+  </si>
+  <si>
+    <t>Not-independent Dimensions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not-indipendent variables </t>
+  </si>
+  <si>
+    <t>Variables associated to each non-independent dimension</t>
+  </si>
+  <si>
+    <t>Variables associated to each dimension</t>
+  </si>
+  <si>
+    <t>Total power injected by SGs</t>
+  </si>
+  <si>
+    <t>Total power injected by CIGs</t>
+  </si>
+  <si>
+    <t>Total power injected by GFOR-CIGs</t>
+  </si>
+  <si>
+    <t>Power injected by each SG</t>
+  </si>
+  <si>
+    <t>Power injected by each CIG</t>
+  </si>
+  <si>
+    <t>Power injected by each GFOR-CIG</t>
+  </si>
+  <si>
+    <t>Power injected by each GFOL-CIG</t>
+  </si>
+  <si>
+    <t>Total power demand</t>
+  </si>
+  <si>
+    <t>Power absorbed by each load</t>
+  </si>
+  <si>
+    <t>Voltage at each generation bus</t>
+  </si>
+  <si>
+    <t>tau_p of each GFOR-CIG</t>
+  </si>
+  <si>
+    <t>tau_q of each GFOL-CIG</t>
+  </si>
+  <si>
+    <t>tau_q of each GFOR-CIG</t>
+  </si>
+  <si>
+    <t>tau_p of each GFOL-CIG</t>
   </si>
 </sst>
 </file>
@@ -248,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -256,6 +314,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5967F1C-9523-4366-8E62-C27416ADE01F}">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -707,6 +771,113 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CA4CA-D91E-4A46-A219-96228A9043D5}">
+  <dimension ref="A2:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="48.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.5546875" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC907853-8440-4B68-BDF2-5F6D8862D9A8}">
   <dimension ref="A1:W1"/>
   <sheetViews>
